--- a/LJ Speech Epoch Accuracy.xlsx
+++ b/LJ Speech Epoch Accuracy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515EEE16-3250-4589-A153-2D1B61C94DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBB4C1-47FD-4BFB-AA78-91D818CCF3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="15390" windowHeight="9442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/LJ Speech Epoch Accuracy.xlsx
+++ b/LJ Speech Epoch Accuracy.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBB4C1-47FD-4BFB-AA78-91D818CCF3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="15390" windowHeight="9442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1778" yWindow="1778" windowWidth="15390" windowHeight="9442" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -369,15 +419,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="A1:XFD1048576"/>
+      <selection activeCell="J11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.081463312378196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.58872098870936</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.299874290299857</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.94053000057666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.318130407673989</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.923052223323907</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.708026900125607</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.445245772188359</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.273376857185043</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.280622343310529</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.239760260573368</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.122969617551619</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.128720236417624</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.117974307871191</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.126295639394966</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.083047214415304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.073159813508912</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.079755111338326</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.030893725759599</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.087147951268886</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.057166098327694</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.105385076680839</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.108349723751041</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.054774097125923</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.062403256379014</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9743603344075815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9765815432757726</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.013501651148906</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.067672833743685</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.066993679687914</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.090470511490232</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.145596522528019</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.065400647489976</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.007803689795757</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9708175165574239</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.009792531402171</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.025753508530523</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.004289195704366</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.058804314034617</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.018255734934547</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.018255734934547</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.018622171440766</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.032565071500308</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9852829107795994</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9727498115593489</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9794686476120459</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.074087163830459</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.02811144291372</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.047463684450967</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1.038122942355815</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.009499176971898</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.029305150249176</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.001811572264631</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.001309775163151</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.065248004840848</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.027486034600231</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.114527636772266</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.106698828663995</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.096945590057787</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.06645979449904</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.017356579101709</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.096779149836999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9945953270229463</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.025981552980534</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1.031041140750071</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9925791190544029</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.003943448294863</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.196661339636709</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.033437197621774</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.131877926981339</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.031108159639173</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.000985382031956</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.005378100662448</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9942208273023219</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.013730662417886</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1.062636442303491</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.035790728959119</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.026166758038606</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1.036396446524224</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.065732469595241</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.038858773781694</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LJ Speech Epoch Accuracy.xlsx
+++ b/LJ Speech Epoch Accuracy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1778" yWindow="1778" windowWidth="15390" windowHeight="9442" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B82"/>
+  <dimension ref="A2:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:XFD1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -437,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.081463312378196</v>
+        <v>1.011529101295198</v>
       </c>
     </row>
     <row r="3">
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.58872098870936</v>
+        <v>1.021166889688781</v>
       </c>
     </row>
     <row r="4">
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.299874290299857</v>
+        <v>1.038240964909509</v>
       </c>
     </row>
     <row r="5">
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.94053000057666</v>
+        <v>1.040136608212263</v>
       </c>
     </row>
     <row r="6">
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.318130407673989</v>
+        <v>1.040263033463102</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.923052223323907</v>
+        <v>0.9941445031393064</v>
       </c>
     </row>
     <row r="8">
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.708026900125607</v>
+        <v>0.9892224526707698</v>
       </c>
     </row>
     <row r="9">
@@ -493,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.445245772188359</v>
+        <v>1.014685325684194</v>
       </c>
     </row>
     <row r="10">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.273376857185043</v>
+        <v>1.010083457161752</v>
       </c>
     </row>
     <row r="11">
@@ -509,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.280622343310529</v>
+        <v>1.015335053754438</v>
       </c>
     </row>
     <row r="12">
@@ -517,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.239760260573368</v>
+        <v>0.9986425696768507</v>
       </c>
     </row>
     <row r="13">
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.122969617551619</v>
+        <v>0.9922039575639956</v>
       </c>
     </row>
     <row r="14">
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.128720236417624</v>
+        <v>0.9719568755293509</v>
       </c>
     </row>
     <row r="15">
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.117974307871191</v>
+        <v>0.9802800560699485</v>
       </c>
     </row>
     <row r="16">
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.126295639394966</v>
+        <v>0.9831868156303379</v>
       </c>
     </row>
     <row r="17">
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.083047214415304</v>
+        <v>0.9811904230122803</v>
       </c>
     </row>
     <row r="18">
@@ -565,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.073159813508912</v>
+        <v>0.9791693921268267</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.079755111338326</v>
+        <v>0.9758923962676274</v>
       </c>
     </row>
     <row r="20">
@@ -581,7 +581,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.030893725759599</v>
+        <v>0.9611062096983871</v>
       </c>
     </row>
     <row r="21">
@@ -589,7 +589,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.087147951268886</v>
+        <v>0.9774370690802331</v>
       </c>
     </row>
     <row r="22">
@@ -597,7 +597,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.057166098327694</v>
+        <v>0.9815843778403137</v>
       </c>
     </row>
     <row r="23">
@@ -605,7 +605,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.105385076680839</v>
+        <v>0.9772197561998768</v>
       </c>
     </row>
     <row r="24">
@@ -613,7 +613,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.108349723751041</v>
+        <v>0.9746057827638926</v>
       </c>
     </row>
     <row r="25">
@@ -621,7 +621,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.054774097125923</v>
+        <v>0.962665208053277</v>
       </c>
     </row>
     <row r="26">
@@ -629,7 +629,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.062403256379014</v>
+        <v>0.9693478775501451</v>
       </c>
     </row>
     <row r="27">
@@ -637,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9743603344075815</v>
+        <v>0.973277646296724</v>
       </c>
     </row>
     <row r="28">
@@ -645,7 +645,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9765815432757726</v>
+        <v>0.9710341256291729</v>
       </c>
     </row>
     <row r="29">
@@ -653,7 +653,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.013501651148906</v>
+        <v>0.9648290524530418</v>
       </c>
     </row>
     <row r="30">
@@ -661,7 +661,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.067672833743685</v>
+        <v>0.9699496291839071</v>
       </c>
     </row>
     <row r="31">
@@ -669,7 +669,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.066993679687914</v>
+        <v>0.9712172837089175</v>
       </c>
     </row>
     <row r="32">
@@ -677,7 +677,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.090470511490232</v>
+        <v>0.9701249458567112</v>
       </c>
     </row>
     <row r="33">
@@ -685,7 +685,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.145596522528019</v>
+        <v>0.9708321292982696</v>
       </c>
     </row>
     <row r="34">
@@ -693,7 +693,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.065400647489976</v>
+        <v>0.9688706853003806</v>
       </c>
     </row>
     <row r="35">
@@ -701,7 +701,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.007803689795757</v>
+        <v>0.9718276331657336</v>
       </c>
     </row>
     <row r="36">
@@ -709,7 +709,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9708175165574239</v>
+        <v>0.9685297082645479</v>
       </c>
     </row>
     <row r="37">
@@ -717,7 +717,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.009792531402171</v>
+        <v>0.9809169074624088</v>
       </c>
     </row>
     <row r="38">
@@ -725,7 +725,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.025753508530523</v>
+        <v>0.9777208847351361</v>
       </c>
     </row>
     <row r="39">
@@ -733,7 +733,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.004289195704366</v>
+        <v>0.9741638994410184</v>
       </c>
     </row>
     <row r="40">
@@ -741,7 +741,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.058804314034617</v>
+        <v>0.9735804094660812</v>
       </c>
     </row>
     <row r="41">
@@ -749,417 +749,1697 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.018255734934547</v>
+        <v>0.9775561039105255</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A42" t="n">
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.018255734934547</v>
+        <v>0.9731648620128688</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A43" t="n">
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.018622171440766</v>
+        <v>0.9635438990942086</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A44" t="n">
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.032565071500308</v>
+        <v>0.9643662675152612</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A45" t="n">
+        <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9852829107795994</v>
+        <v>0.9567694422984837</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A46" t="n">
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9727498115593489</v>
+        <v>0.9614344225640452</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A47" t="n">
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9794686476120459</v>
+        <v>0.9582693767180783</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A48" t="n">
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.074087163830459</v>
+        <v>0.9681850398676896</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A49" t="n">
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.02811144291372</v>
+        <v>0.9644894025371837</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A50" t="n">
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.047463684450967</v>
+        <v>0.9645220362046858</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A51" t="n">
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.038122942355815</v>
+        <v>0.9645220362046858</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A52" t="n">
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.009499176971898</v>
+        <v>0.9639857395335207</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A53" t="n">
+        <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.029305150249176</v>
+        <v>0.9659275130377941</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A54" t="n">
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.001811572264631</v>
+        <v>0.9637176916092228</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A55" t="n">
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.001309775163151</v>
+        <v>0.9583147687470608</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A56" t="n">
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.065248004840848</v>
+        <v>0.9524767005652428</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A57" t="n">
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.027486034600231</v>
+        <v>0.9489943028301276</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A58" t="n">
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.114527636772266</v>
+        <v>0.9546795520615725</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A59" t="n">
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.106698828663995</v>
+        <v>0.9504699289640817</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A60" t="n">
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.096945590057787</v>
+        <v>0.9472526601218129</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A61" t="n">
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.06645979449904</v>
+        <v>0.9407600585205157</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A62" t="n">
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.017356579101709</v>
+        <v>0.9477960433690005</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A63" t="n">
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.096779149836999</v>
+        <v>0.9416662356766928</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A64" t="n">
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9945953270229463</v>
+        <v>0.9264720000877203</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A65" t="n">
+        <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.025981552980534</v>
+        <v>0.9232869039338742</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A66" t="n">
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.031041140750071</v>
+        <v>0.9264720000877203</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A67" t="n">
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9925791190544029</v>
+        <v>0.9232869039338742</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A68" t="n">
+        <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.003943448294863</v>
+        <v>0.9281232134576838</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A69" t="n">
+        <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.196661339636709</v>
+        <v>0.9281232134576838</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A70" t="n">
+        <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.033437197621774</v>
+        <v>0.9264186680031382</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A71" t="n">
+        <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.131877926981339</v>
+        <v>0.9341790846698049</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A72" t="n">
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.031108159639173</v>
+        <v>0.9350471402253605</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A73" t="n">
+        <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.000985382031956</v>
+        <v>0.932929084669805</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A74" t="n">
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.005378100662448</v>
+        <v>0.9333054444211647</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A75" t="n">
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9942208273023219</v>
+        <v>0.9325952171484374</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A76" t="n">
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.013730662417886</v>
+        <v>0.9362666352770923</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A77" t="n">
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.062636442303491</v>
+        <v>0.9322331139738341</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A78" t="n">
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.035790728959119</v>
+        <v>0.9358846908326479</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A79" t="n">
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.026166758038606</v>
+        <v>0.9329938549689502</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A80" t="n">
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.036396446524224</v>
+        <v>0.9322017304268257</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A81" t="n">
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.065732469595241</v>
+        <v>0.9379930642300838</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>&lt;__main__.DisplayOutputs object at 0x7fbbd00a3310&gt;</t>
-        </is>
+      <c r="A82" t="n">
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.038858773781694</v>
+        <v>0.9361473918560397</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9330114269437589</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9299895751304311</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.935420463475038</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9306689229565182</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9335068911477472</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9374757126580446</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9355638473494402</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9374213648319577</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9361713648319577</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9355463648319577</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9361713648319577</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9298692814986244</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9374213648319577</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9355831295378401</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9375717659014764</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9381600011955941</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9374213648319577</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9361713648319577</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9409725011955941</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9332393795378401</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9341318911477472</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9397225011955941</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9374213648319577</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.939410001195594</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9358588648319577</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9378842659014764</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9370394203875133</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9371479273319577</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9346088648319577</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9374213648319577</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.938534518426729</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9361713648319577</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9328818911477472</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9319893795378401</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9391227537208466</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9374213648319577</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.93402062953784</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9332393795378401</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9361713648319577</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.939504698165291</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9358588648319577</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9327706295378401</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9338276148319578</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9327706295378401</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9378842659014764</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9346088648319577</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9363217659014764</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9378842659014764</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9378842659014764</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9361713648319577</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9361713648319577</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9378842659014764</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9349581295378401</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9355831295378401</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9361713648319577</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9319893795378401</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9331982611167874</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9355831295378401</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9327706295378401</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9294811558536296</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9363217659014764</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9334808568105674</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9335265439450703</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9327706295378401</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.935911412366123</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9391342659014764</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9397225011955941</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9361713648319577</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9370618974804238</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9343331295378401</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9378842659014764</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9397225011955941</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9378842659014764</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.933567662366123</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9334808568105674</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9334808568105674</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9356683568105674</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.932587465662242</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.935911412366123</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9342209883895147</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9363217659014764</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9319893795378401</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9334808568105674</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9334808568105674</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9334808568105674</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.9334808568105674</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9344183568105674</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.9344183568105674</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.9356683568105674</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.9326996068105674</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.9350433568105674</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.9374472029644135</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9347308568105673</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.9342209883895147</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.9320746068105674</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.9320746068105674</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.9362933568105674</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.9356683568105674</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.9356683568105674</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.9420470270913844</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.961460122698797</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.9434643376490319</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.9446312002784996</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.9288982034285175</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.9204321747189661</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.9700191890423402</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.9409287474322392</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.9860245886581027</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.9513674319372376</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.968908172768125</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.9528798597149717</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.9200392237823468</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.9961295112729894</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.9629037620461721</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.9748485044588884</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1.007514056740557</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1.031229292065132</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.9655290065963401</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.9966463906365074</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1.032364462505593</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.9368852146972558</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.9589522764007943</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.9608288511344292</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.9007834589665504</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.9405363679818721</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.9310961528097699</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1.027083588384274</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1.001785773736385</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.9284298412031677</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.9518103966448297</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.9979060983812947</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.9237597545695351</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.9292152076528336</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1.010269304399172</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.9857794946079455</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.9536684903679268</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.9789275734137087</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1.027975001873457</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f68e00e4d60&gt;</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.9849298390608463</v>
       </c>
     </row>
   </sheetData>

--- a/LJ Speech Epoch Accuracy.xlsx
+++ b/LJ Speech Epoch Accuracy.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B242"/>
+  <dimension ref="A2:B323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -2442,6 +2442,736 @@
         <v>0.9849298390608463</v>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5.205180650487272</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.956576556616381</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.473479429979991</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>3</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.437121623022951</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>4</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2.643228509312538</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>5</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.760924730453898</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>6</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.523583777472727</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>7</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.357597039083963</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>8</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1.306134976117688</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>9</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1.266161055231813</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>10</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1.201616142328877</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>11</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1.195585881234915</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>12</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1.226689229916379</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>13</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1.180434916728189</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>14</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.115839579263878</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>15</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1.052252726258405</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>16</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1.087150177696135</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>17</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1.178073317154063</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>18</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1.099288381657827</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>19</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1.058448205402254</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>20</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1.080840272589291</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>21</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1.080944215594006</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>22</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1.096330180071861</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>23</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1.087868660421187</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>24</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1.009688846451093</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>25</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.072081390473391</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>26</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1.079625517010108</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>27</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.094251279083718</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>28</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1.138035285145209</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>29</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1.076502317283534</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>30</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1.089079628275054</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>31</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1.097446472860466</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>32</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1.088708718929113</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>33</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1.091054144781229</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>34</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1.135269469533876</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>35</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1.054888496761779</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>36</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.9804809349498624</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>37</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.9913985729168245</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>38</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1.021971301165635</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>39</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1.023071655321763</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1.023071655321763</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.9613599579775841</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.9892343708303535</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.9549625858457806</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.9627892913692859</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.9401874004788022</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.938167371880488</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1.05464406564183</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.9791052752838884</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.9294519271927117</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.9558654946082695</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1.00506258823306</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0.9948401599271234</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.9343099875625508</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1.001491826711858</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.9559397363245918</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1.024585566394081</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1.037604621111003</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.9585248935763495</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1.072542206164056</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1.034233152250161</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1.010083856371503</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.9784211237516599</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.9485652003365996</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.9956109935629377</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.9532199319171614</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.940111663437014</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.9906518691492431</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1.016246213042413</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1.01033331917733</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.9564526746337625</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.9380522297971179</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.9644038827912014</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1.005472059523607</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.9692668236645543</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.8782583283145834</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.9811203487043575</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0.9398007544985979</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1.007863459260986</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.9752874356258755</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f5c780c0940&gt;</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0.9996396006527586</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LJ Speech Epoch Accuracy.xlsx
+++ b/LJ Speech Epoch Accuracy.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E2C5EF-BA01-4DA2-8BB2-889A95206EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="15390" windowHeight="9442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1103" yWindow="1103" windowWidth="15390" windowHeight="9442" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -369,15 +419,2030 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
       <selection activeCell="E479" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9341474810145325</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.933002944946469</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9456052076623147</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9758994547102116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9948899047234678</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9804476002179782</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9645920993677092</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9709236694912702</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9559552041678322</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9475904366756269</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9515719445402514</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9445125683797256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9534151953935931</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9547460439631269</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.965507247243533</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9565720002606289</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.955355133088479</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9581757269057161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9658035217133972</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9626374032923445</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9603359320469829</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9603694252697058</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.953247567671719</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9528720727599347</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9614079698457817</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9633976291804243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9790771292109682</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9724600200972561</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9623568386319822</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9527831090810187</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9464485849289153</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9481441623028413</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.949091990217264</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9436445820220111</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9516284087763971</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9402007652790668</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9373795847235113</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9369695814370064</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9345167527918051</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9334378837441861</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9318051697643254</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9299660578673518</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9307473078673518</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9321698984346792</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9348481003655985</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9262700490150929</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9236291249720308</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.911345575188481</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9138380153463624</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9133247418551477</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9144608733910953</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.915075586909842</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.910577480849236</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9180370922356565</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9127194361161912</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9246875614345005</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9136599925121945</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9233942143259201</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9194342064097101</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9168300397430434</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.916905159935351</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.916905159935351</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.915721447814139</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.92234037142525</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9157037724747725</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9189149253569781</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9161867507538034</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9154427031347558</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9224646525395177</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9178147592941761</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9234153869651163</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9229596577984497</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9224456775352917</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.924086460683065</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9217663297092048</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9212738025352918</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9225407266390294</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9255638244651163</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.926502780210458</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9240381224723627</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9222803099723627</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9240381224723627</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9271631224723627</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9239362202984497</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9247449677104579</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9202509200914103</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9233759200914102</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9247821700914103</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9240381224723627</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9280634200914103</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9286884200914103</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9286884200914103</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9252872205964608</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9276293923136324</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9293655034247437</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9271953645358547</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9251299909726364</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9267613367580769</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9230129150409052</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9264851372631275</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9299905034247435</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9238809705964608</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9237231423136324</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.924591197869188</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9269523089802991</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9224210589802991</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.926544322869188</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9278203645358547</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.927169322869188</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9237231423136324</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9232891145358547</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9271953645358547</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9237231423136324</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9227883132538034</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9224210589802991</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9296755232660135</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.924591197869188</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9302335589802991</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9224210589802991</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9317886185041087</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9299855431072833</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9242082321829136</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9271953645358547</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.924591197869188</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9263273089802991</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9276293923136324</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.929122447869188</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.925216197869188</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9257692732660135</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9237231423136324</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9266945632538034</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9282543923136324</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9263273089802991</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9237231423136324</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9294165655162469</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9315356423136324</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.929122447869188</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.929122447869188</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9282543923136324</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9317266145358547</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9271953645358547</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9294165655162469</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9271953645358547</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9294165655162469</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9294165655162469</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9282543923136324</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9330797599606913</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.927871426627358</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9327647798019612</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9324706621549024</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9289825377384692</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.932403697869188</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.929122447869188</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9327647798019612</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9305946409130723</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9271953645358547</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9271953645358547</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9276293923136324</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9316026065993468</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.9263273089802991</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9302846210718024</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9269860099606914</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9318456621549024</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9271953645358547</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9317762177104579</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9280634200914103</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.9278175158086446</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9257872870504745</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9299905034247435</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9276293923136324</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.9318456621549024</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.9300035568917444</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.9282543923136324</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9294165655162469</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.927574460253089</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.926949460253089</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.926949460253089</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9294165655162469</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.9267064046975334</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.9285485099606913</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.9284375554911842</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.9260303426060301</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.928497447869188</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.901683025174447</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.9842815697857922</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.9384319519017806</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.9400044852626688</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.9308204311417149</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.8977518953827175</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.9941237175232256</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.9529110206050142</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.9344605000841487</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.994860297313952</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.9731508002360091</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.9384980478286561</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.9304742516079775</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.9274438158812421</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.9485841594549913</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.9841645081480299</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.940714999169205</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.9343023234876634</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.9620343679631868</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.9793375136250707</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1.030469127134884</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.9209810553409653</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.9515160351865956</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1.033214329473172</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.8764680724522699</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.9411741652309488</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.9570871633722594</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.9488140674837507</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.89823406082125</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.93849619424262</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.9335968487700246</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.9473385246500093</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.9673024019430942</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.9951217158411565</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.9451421650969025</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.9881321547483822</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.9641884583044663</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.9391340778358027</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.9413128421265947</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>&lt;__main__.DisplayOutputs object at 0x7f49cd7b9a30&gt;</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1.003235324427023</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>